--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Enho</t>
+  </si>
+  <si>
+    <t>Gpr19</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Enho</t>
-  </si>
-  <si>
-    <t>Gpr19</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3475143333333333</v>
+        <v>0.0973555</v>
       </c>
       <c r="H2">
-        <v>1.042543</v>
+        <v>0.194711</v>
       </c>
       <c r="I2">
-        <v>0.4579110367161424</v>
+        <v>0.07093398545358634</v>
       </c>
       <c r="J2">
-        <v>0.502977455478079</v>
+        <v>0.06296283720967832</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0593045</v>
+        <v>1.169871</v>
       </c>
       <c r="N2">
-        <v>2.118609</v>
+        <v>2.339742</v>
       </c>
       <c r="O2">
-        <v>0.1129230659404263</v>
+        <v>0.1382960968124259</v>
       </c>
       <c r="P2">
-        <v>0.09113917679552902</v>
+        <v>0.1105808578646287</v>
       </c>
       <c r="Q2">
-        <v>0.3681234971145</v>
+        <v>0.1138933761405</v>
       </c>
       <c r="R2">
-        <v>2.208740982687</v>
+        <v>0.455573504562</v>
       </c>
       <c r="S2">
-        <v>0.05170871819394592</v>
+        <v>0.009809893319580387</v>
       </c>
       <c r="T2">
-        <v>0.04584095123898197</v>
+        <v>0.006962484552237195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3475143333333333</v>
+        <v>0.0973555</v>
       </c>
       <c r="H3">
-        <v>1.042543</v>
+        <v>0.194711</v>
       </c>
       <c r="I3">
-        <v>0.4579110367161424</v>
+        <v>0.07093398545358634</v>
       </c>
       <c r="J3">
-        <v>0.502977455478079</v>
+        <v>0.06296283720967832</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.896889</v>
       </c>
       <c r="O3">
-        <v>0.1029372220386413</v>
+        <v>0.11415174311209</v>
       </c>
       <c r="P3">
-        <v>0.1246195398622508</v>
+        <v>0.1369127325827405</v>
       </c>
       <c r="Q3">
-        <v>0.3355701498585555</v>
+        <v>0.09400935901316666</v>
       </c>
       <c r="R3">
-        <v>3.020131348727</v>
+        <v>0.564056154079</v>
       </c>
       <c r="S3">
-        <v>0.04713609006039396</v>
+        <v>0.008097238085414519</v>
       </c>
       <c r="T3">
-        <v>0.06268081906276393</v>
+        <v>0.00862041409353931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3475143333333333</v>
+        <v>0.0973555</v>
       </c>
       <c r="H4">
-        <v>1.042543</v>
+        <v>0.194711</v>
       </c>
       <c r="I4">
-        <v>0.4579110367161424</v>
+        <v>0.07093398545358634</v>
       </c>
       <c r="J4">
-        <v>0.502977455478079</v>
+        <v>0.06296283720967832</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.9458639999999999</v>
+        <v>0.5141256666666667</v>
       </c>
       <c r="N4">
-        <v>2.837592</v>
+        <v>1.542377</v>
       </c>
       <c r="O4">
-        <v>0.100830179464616</v>
+        <v>0.06077727627326973</v>
       </c>
       <c r="P4">
-        <v>0.1220686775906167</v>
+        <v>0.07289580296061379</v>
       </c>
       <c r="Q4">
-        <v>0.3287012973839999</v>
+        <v>0.05005296134116667</v>
       </c>
       <c r="R4">
-        <v>2.958311676456</v>
+        <v>0.300317768047</v>
       </c>
       <c r="S4">
-        <v>0.04617125201091703</v>
+        <v>0.004311174431076713</v>
       </c>
       <c r="T4">
-        <v>0.06139779284810237</v>
+        <v>0.004589726575077914</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3475143333333333</v>
+        <v>0.0973555</v>
       </c>
       <c r="H5">
-        <v>1.042543</v>
+        <v>0.194711</v>
       </c>
       <c r="I5">
-        <v>0.4579110367161424</v>
+        <v>0.07093398545358634</v>
       </c>
       <c r="J5">
-        <v>0.502977455478079</v>
+        <v>0.06296283720967832</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.837119</v>
+        <v>3.0490035</v>
       </c>
       <c r="N5">
-        <v>7.674237999999999</v>
+        <v>6.098007</v>
       </c>
       <c r="O5">
-        <v>0.4090412547650487</v>
+        <v>0.3604374184994972</v>
       </c>
       <c r="P5">
-        <v>0.330133466747742</v>
+        <v>0.2882039324525999</v>
       </c>
       <c r="Q5">
-        <v>1.333453851205666</v>
+        <v>0.29683726024425</v>
       </c>
       <c r="R5">
-        <v>8.000723107233998</v>
+        <v>1.187349040977</v>
       </c>
       <c r="S5">
-        <v>0.1873045050291352</v>
+        <v>0.02556726260077155</v>
       </c>
       <c r="T5">
-        <v>0.1660496910729363</v>
+        <v>0.01814613728220217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.3475143333333333</v>
+        <v>0.0973555</v>
       </c>
       <c r="H6">
-        <v>1.042543</v>
+        <v>0.194711</v>
       </c>
       <c r="I6">
-        <v>0.4579110367161424</v>
+        <v>0.07093398545358634</v>
       </c>
       <c r="J6">
-        <v>0.502977455478079</v>
+        <v>0.06296283720967832</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.478297666666667</v>
+        <v>1.68155</v>
       </c>
       <c r="N6">
-        <v>4.434893</v>
+        <v>5.04465</v>
       </c>
       <c r="O6">
-        <v>0.1575882146187223</v>
+        <v>0.198784140811196</v>
       </c>
       <c r="P6">
-        <v>0.190782016500569</v>
+        <v>0.2384201867670876</v>
       </c>
       <c r="Q6">
-        <v>0.5137296280998888</v>
+        <v>0.163708141025</v>
       </c>
       <c r="R6">
-        <v>4.623566652899</v>
+        <v>0.98224884615</v>
       </c>
       <c r="S6">
-        <v>0.07216138273030508</v>
+        <v>0.01410055135270504</v>
       </c>
       <c r="T6">
-        <v>0.0959590532104331</v>
+        <v>0.01501161140691724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.3475143333333333</v>
+        <v>0.0973555</v>
       </c>
       <c r="H7">
-        <v>1.042543</v>
+        <v>0.194711</v>
       </c>
       <c r="I7">
-        <v>0.4579110367161424</v>
+        <v>0.07093398545358634</v>
       </c>
       <c r="J7">
-        <v>0.502977455478079</v>
+        <v>0.06296283720967832</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.094548</v>
+        <v>1.078996</v>
       </c>
       <c r="N7">
-        <v>3.283644</v>
+        <v>3.236988</v>
       </c>
       <c r="O7">
-        <v>0.1166800631725455</v>
+        <v>0.1275533244915211</v>
       </c>
       <c r="P7">
-        <v>0.1412571225032925</v>
+        <v>0.1529864873723294</v>
       </c>
       <c r="Q7">
-        <v>0.3803711185213333</v>
+        <v>0.105046195078</v>
       </c>
       <c r="R7">
-        <v>3.423340066692</v>
+        <v>0.630277170468</v>
       </c>
       <c r="S7">
-        <v>0.05342908869144529</v>
+        <v>0.009047865664038136</v>
       </c>
       <c r="T7">
-        <v>0.07104914804486137</v>
+        <v>0.009632463299704486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.203994</v>
+        <v>0.3475143333333333</v>
       </c>
       <c r="H8">
-        <v>0.407988</v>
+        <v>1.042543</v>
       </c>
       <c r="I8">
-        <v>0.2687978453374281</v>
+        <v>0.2532016852214761</v>
       </c>
       <c r="J8">
-        <v>0.1968348222620943</v>
+        <v>0.337122531305831</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0593045</v>
+        <v>1.169871</v>
       </c>
       <c r="N8">
-        <v>2.118609</v>
+        <v>2.339742</v>
       </c>
       <c r="O8">
-        <v>0.1129230659404263</v>
+        <v>0.1382960968124259</v>
       </c>
       <c r="P8">
-        <v>0.09113917679552902</v>
+        <v>0.1105808578646287</v>
       </c>
       <c r="Q8">
-        <v>0.216091762173</v>
+        <v>0.406546940651</v>
       </c>
       <c r="R8">
-        <v>0.8643670486920001</v>
+        <v>2.439281643906</v>
       </c>
       <c r="S8">
-        <v>0.0303534768136829</v>
+        <v>0.03501680477245864</v>
       </c>
       <c r="T8">
-        <v>0.01793936366566154</v>
+        <v>0.03727929871729395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.203994</v>
+        <v>0.3475143333333333</v>
       </c>
       <c r="H9">
-        <v>0.407988</v>
+        <v>1.042543</v>
       </c>
       <c r="I9">
-        <v>0.2687978453374281</v>
+        <v>0.2532016852214761</v>
       </c>
       <c r="J9">
-        <v>0.1968348222620943</v>
+        <v>0.337122531305831</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.896889</v>
       </c>
       <c r="O9">
-        <v>0.1029372220386413</v>
+        <v>0.11415174311209</v>
       </c>
       <c r="P9">
-        <v>0.1246195398622508</v>
+        <v>0.1369127325827405</v>
       </c>
       <c r="Q9">
-        <v>0.196982658222</v>
+        <v>0.3355701498585555</v>
       </c>
       <c r="R9">
-        <v>1.181895949332</v>
+        <v>3.020131348727</v>
       </c>
       <c r="S9">
-        <v>0.02766930348900719</v>
+        <v>0.02890341372695022</v>
       </c>
       <c r="T9">
-        <v>0.0245294649791701</v>
+        <v>0.0461563669762918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.203994</v>
+        <v>0.3475143333333333</v>
       </c>
       <c r="H10">
-        <v>0.407988</v>
+        <v>1.042543</v>
       </c>
       <c r="I10">
-        <v>0.2687978453374281</v>
+        <v>0.2532016852214761</v>
       </c>
       <c r="J10">
-        <v>0.1968348222620943</v>
+        <v>0.337122531305831</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.9458639999999999</v>
+        <v>0.5141256666666667</v>
       </c>
       <c r="N10">
-        <v>2.837592</v>
+        <v>1.542377</v>
       </c>
       <c r="O10">
-        <v>0.100830179464616</v>
+        <v>0.06077727627326973</v>
       </c>
       <c r="P10">
-        <v>0.1220686775906167</v>
+        <v>0.07289580296061379</v>
       </c>
       <c r="Q10">
-        <v>0.192950580816</v>
+        <v>0.1786660383012222</v>
       </c>
       <c r="R10">
-        <v>1.157703484896</v>
+        <v>1.607994344711</v>
       </c>
       <c r="S10">
-        <v>0.02710293498507499</v>
+        <v>0.01538890877556313</v>
       </c>
       <c r="T10">
-        <v>0.02402736645731792</v>
+        <v>0.02457481761565321</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.203994</v>
+        <v>0.3475143333333333</v>
       </c>
       <c r="H11">
-        <v>0.407988</v>
+        <v>1.042543</v>
       </c>
       <c r="I11">
-        <v>0.2687978453374281</v>
+        <v>0.2532016852214761</v>
       </c>
       <c r="J11">
-        <v>0.1968348222620943</v>
+        <v>0.337122531305831</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.837119</v>
+        <v>3.0490035</v>
       </c>
       <c r="N11">
-        <v>7.674237999999999</v>
+        <v>6.098007</v>
       </c>
       <c r="O11">
-        <v>0.4090412547650487</v>
+        <v>0.3604374184994972</v>
       </c>
       <c r="P11">
-        <v>0.330133466747742</v>
+        <v>0.2882039324525999</v>
       </c>
       <c r="Q11">
-        <v>0.782749253286</v>
+        <v>1.0595724186335</v>
       </c>
       <c r="R11">
-        <v>3.130997013144</v>
+        <v>6.357434511801</v>
       </c>
       <c r="S11">
-        <v>0.1099494079349631</v>
+        <v>0.09126336178095115</v>
       </c>
       <c r="T11">
-        <v>0.0649817622500608</v>
+        <v>0.09716003924071522</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.203994</v>
+        <v>0.3475143333333333</v>
       </c>
       <c r="H12">
-        <v>0.407988</v>
+        <v>1.042543</v>
       </c>
       <c r="I12">
-        <v>0.2687978453374281</v>
+        <v>0.2532016852214761</v>
       </c>
       <c r="J12">
-        <v>0.1968348222620943</v>
+        <v>0.337122531305831</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.478297666666667</v>
+        <v>1.68155</v>
       </c>
       <c r="N12">
-        <v>4.434893</v>
+        <v>5.04465</v>
       </c>
       <c r="O12">
-        <v>0.1575882146187223</v>
+        <v>0.198784140811196</v>
       </c>
       <c r="P12">
-        <v>0.190782016500569</v>
+        <v>0.2384201867670876</v>
       </c>
       <c r="Q12">
-        <v>0.301563854214</v>
+        <v>0.5843627272166666</v>
       </c>
       <c r="R12">
-        <v>1.809383125284</v>
+        <v>5.25926454495</v>
       </c>
       <c r="S12">
-        <v>0.04235937254008475</v>
+        <v>0.05033247944869804</v>
       </c>
       <c r="T12">
-        <v>0.03755254430869344</v>
+        <v>0.08037681687732959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.203994</v>
+        <v>0.3475143333333333</v>
       </c>
       <c r="H13">
-        <v>0.407988</v>
+        <v>1.042543</v>
       </c>
       <c r="I13">
-        <v>0.2687978453374281</v>
+        <v>0.2532016852214761</v>
       </c>
       <c r="J13">
-        <v>0.1968348222620943</v>
+        <v>0.337122531305831</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.094548</v>
+        <v>1.078996</v>
       </c>
       <c r="N13">
-        <v>3.283644</v>
+        <v>3.236988</v>
       </c>
       <c r="O13">
-        <v>0.1166800631725455</v>
+        <v>0.1275533244915211</v>
       </c>
       <c r="P13">
-        <v>0.1412571225032925</v>
+        <v>0.1529864873723294</v>
       </c>
       <c r="Q13">
-        <v>0.223281224712</v>
+        <v>0.3749665756093333</v>
       </c>
       <c r="R13">
-        <v>1.339687348272</v>
+        <v>3.374699180484</v>
       </c>
       <c r="S13">
-        <v>0.03136334957461522</v>
+        <v>0.03229671671685493</v>
       </c>
       <c r="T13">
-        <v>0.02780432060119046</v>
+        <v>0.05157519187854725</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07501633333333332</v>
+        <v>0.9276105</v>
       </c>
       <c r="H14">
-        <v>0.225049</v>
+        <v>1.855221</v>
       </c>
       <c r="I14">
-        <v>0.09884716592210693</v>
+        <v>0.6758643293249376</v>
       </c>
       <c r="J14">
-        <v>0.1085754480898018</v>
+        <v>0.5999146314844905</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.0593045</v>
+        <v>1.169871</v>
       </c>
       <c r="N14">
-        <v>2.118609</v>
+        <v>2.339742</v>
       </c>
       <c r="O14">
-        <v>0.1129230659404263</v>
+        <v>0.1382960968124259</v>
       </c>
       <c r="P14">
-        <v>0.09113917679552902</v>
+        <v>0.1105808578646287</v>
       </c>
       <c r="Q14">
-        <v>0.07946513947349999</v>
+        <v>1.0851846232455</v>
       </c>
       <c r="R14">
-        <v>0.476790836841</v>
+        <v>4.340738492982</v>
       </c>
       <c r="S14">
-        <v>0.01116212503544634</v>
+        <v>0.09346939872038686</v>
       </c>
       <c r="T14">
-        <v>0.009895476959110226</v>
+        <v>0.06633907459509757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07501633333333332</v>
+        <v>0.9276105</v>
       </c>
       <c r="H15">
-        <v>0.225049</v>
+        <v>1.855221</v>
       </c>
       <c r="I15">
-        <v>0.09884716592210693</v>
+        <v>0.6758643293249376</v>
       </c>
       <c r="J15">
-        <v>0.1085754480898018</v>
+        <v>0.5999146314844905</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.896889</v>
       </c>
       <c r="O15">
-        <v>0.1029372220386413</v>
+        <v>0.11415174311209</v>
       </c>
       <c r="P15">
-        <v>0.1246195398622508</v>
+        <v>0.1369127325827405</v>
       </c>
       <c r="Q15">
-        <v>0.0724379969512222</v>
+        <v>0.8957282179114999</v>
       </c>
       <c r="R15">
-        <v>0.6519419725609998</v>
+        <v>5.374369307468999</v>
       </c>
       <c r="S15">
-        <v>0.01017505266641433</v>
+        <v>0.07715109129972528</v>
       </c>
       <c r="T15">
-        <v>0.01353062238128879</v>
+        <v>0.08213595151290935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9276105</v>
+      </c>
+      <c r="H16">
+        <v>1.855221</v>
+      </c>
+      <c r="I16">
+        <v>0.6758643293249376</v>
+      </c>
+      <c r="J16">
+        <v>0.5999146314844905</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.07501633333333332</v>
-      </c>
-      <c r="H16">
-        <v>0.225049</v>
-      </c>
-      <c r="I16">
-        <v>0.09884716592210693</v>
-      </c>
-      <c r="J16">
-        <v>0.1085754480898018</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M16">
-        <v>0.9458639999999999</v>
+        <v>0.5141256666666667</v>
       </c>
       <c r="N16">
-        <v>2.837592</v>
+        <v>1.542377</v>
       </c>
       <c r="O16">
-        <v>0.100830179464616</v>
+        <v>0.06077727627326973</v>
       </c>
       <c r="P16">
-        <v>0.1220686775906167</v>
+        <v>0.07289580296061379</v>
       </c>
       <c r="Q16">
-        <v>0.07095524911199999</v>
+        <v>0.4769083667195</v>
       </c>
       <c r="R16">
-        <v>0.6385972420079999</v>
+        <v>2.861450200317</v>
       </c>
       <c r="S16">
-        <v>0.009966777479494721</v>
+        <v>0.04107719306662989</v>
       </c>
       <c r="T16">
-        <v>0.01325366136713075</v>
+        <v>0.04373125876988266</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07501633333333332</v>
+        <v>0.9276105</v>
       </c>
       <c r="H17">
-        <v>0.225049</v>
+        <v>1.855221</v>
       </c>
       <c r="I17">
-        <v>0.09884716592210693</v>
+        <v>0.6758643293249376</v>
       </c>
       <c r="J17">
-        <v>0.1085754480898018</v>
+        <v>0.5999146314844905</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.837119</v>
+        <v>3.0490035</v>
       </c>
       <c r="N17">
-        <v>7.674237999999999</v>
+        <v>6.098007</v>
       </c>
       <c r="O17">
-        <v>0.4090412547650487</v>
+        <v>0.3604374184994972</v>
       </c>
       <c r="P17">
-        <v>0.330133466747742</v>
+        <v>0.2882039324525999</v>
       </c>
       <c r="Q17">
-        <v>0.2878465979436666</v>
+        <v>2.82828766113675</v>
       </c>
       <c r="R17">
-        <v>1.727079587662</v>
+        <v>11.313150644547</v>
       </c>
       <c r="S17">
-        <v>0.04043256877874758</v>
+        <v>0.2436067941177745</v>
       </c>
       <c r="T17">
-        <v>0.03584438908157576</v>
+        <v>0.1728977559296825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.07501633333333332</v>
+        <v>0.9276105</v>
       </c>
       <c r="H18">
-        <v>0.225049</v>
+        <v>1.855221</v>
       </c>
       <c r="I18">
-        <v>0.09884716592210693</v>
+        <v>0.6758643293249376</v>
       </c>
       <c r="J18">
-        <v>0.1085754480898018</v>
+        <v>0.5999146314844905</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.478297666666667</v>
+        <v>1.68155</v>
       </c>
       <c r="N18">
-        <v>4.434893</v>
+        <v>5.04465</v>
       </c>
       <c r="O18">
-        <v>0.1575882146187223</v>
+        <v>0.198784140811196</v>
       </c>
       <c r="P18">
-        <v>0.190782016500569</v>
+        <v>0.2384201867670876</v>
       </c>
       <c r="Q18">
-        <v>0.1108964705285555</v>
+        <v>1.559823436275</v>
       </c>
       <c r="R18">
-        <v>0.9980682347569998</v>
+        <v>9.358940617649999</v>
       </c>
       <c r="S18">
-        <v>0.01557714839778544</v>
+        <v>0.1343511100097929</v>
       </c>
       <c r="T18">
-        <v>0.02071424292902524</v>
+        <v>0.1430317584828408</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,433 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.07501633333333332</v>
+        <v>0.9276105</v>
       </c>
       <c r="H19">
-        <v>0.225049</v>
+        <v>1.855221</v>
       </c>
       <c r="I19">
-        <v>0.09884716592210693</v>
+        <v>0.6758643293249376</v>
       </c>
       <c r="J19">
-        <v>0.1085754480898018</v>
+        <v>0.5999146314844905</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.094548</v>
+        <v>1.078996</v>
       </c>
       <c r="N19">
-        <v>3.283644</v>
+        <v>3.236988</v>
       </c>
       <c r="O19">
-        <v>0.1166800631725455</v>
+        <v>0.1275533244915211</v>
       </c>
       <c r="P19">
-        <v>0.1412571225032925</v>
+        <v>0.1529864873723294</v>
       </c>
       <c r="Q19">
-        <v>0.08210897761733331</v>
+        <v>1.000888019058</v>
       </c>
       <c r="R19">
-        <v>0.7389807985559999</v>
+        <v>6.005328114348</v>
       </c>
       <c r="S19">
-        <v>0.01153349356421852</v>
+        <v>0.08620874211062804</v>
       </c>
       <c r="T19">
-        <v>0.01533705537167101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.1323876666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.397163</v>
-      </c>
-      <c r="I20">
-        <v>0.1744439520243225</v>
-      </c>
-      <c r="J20">
-        <v>0.1916122741700249</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.0593045</v>
-      </c>
-      <c r="N20">
-        <v>2.118609</v>
-      </c>
-      <c r="O20">
-        <v>0.1129230659404263</v>
-      </c>
-      <c r="P20">
-        <v>0.09113917679552902</v>
-      </c>
-      <c r="Q20">
-        <v>0.1402388510445</v>
-      </c>
-      <c r="R20">
-        <v>0.8414331062670001</v>
-      </c>
-      <c r="S20">
-        <v>0.01969874589735113</v>
-      </c>
-      <c r="T20">
-        <v>0.01746338493177528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.1323876666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.397163</v>
-      </c>
-      <c r="I21">
-        <v>0.1744439520243225</v>
-      </c>
-      <c r="J21">
-        <v>0.1916122741700249</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.9656296666666666</v>
-      </c>
-      <c r="N21">
-        <v>2.896889</v>
-      </c>
-      <c r="O21">
-        <v>0.1029372220386413</v>
-      </c>
-      <c r="P21">
-        <v>0.1246195398622508</v>
-      </c>
-      <c r="Q21">
-        <v>0.1278374584341111</v>
-      </c>
-      <c r="R21">
-        <v>1.150537125907</v>
-      </c>
-      <c r="S21">
-        <v>0.01795677582282577</v>
-      </c>
-      <c r="T21">
-        <v>0.02387863343902795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1323876666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.397163</v>
-      </c>
-      <c r="I22">
-        <v>0.1744439520243225</v>
-      </c>
-      <c r="J22">
-        <v>0.1916122741700249</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.9458639999999999</v>
-      </c>
-      <c r="N22">
-        <v>2.837592</v>
-      </c>
-      <c r="O22">
-        <v>0.100830179464616</v>
-      </c>
-      <c r="P22">
-        <v>0.1220686775906167</v>
-      </c>
-      <c r="Q22">
-        <v>0.125220727944</v>
-      </c>
-      <c r="R22">
-        <v>1.126986551496</v>
-      </c>
-      <c r="S22">
-        <v>0.01758921498912931</v>
-      </c>
-      <c r="T22">
-        <v>0.02338985691806562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1323876666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.397163</v>
-      </c>
-      <c r="I23">
-        <v>0.1744439520243225</v>
-      </c>
-      <c r="J23">
-        <v>0.1916122741700249</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.837119</v>
-      </c>
-      <c r="N23">
-        <v>7.674237999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.4090412547650487</v>
-      </c>
-      <c r="P23">
-        <v>0.330133466747742</v>
-      </c>
-      <c r="Q23">
-        <v>0.5079872311323332</v>
-      </c>
-      <c r="R23">
-        <v>3.047923386793999</v>
-      </c>
-      <c r="S23">
-        <v>0.07135477302220285</v>
-      </c>
-      <c r="T23">
-        <v>0.06325762434316916</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1323876666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.397163</v>
-      </c>
-      <c r="I24">
-        <v>0.1744439520243225</v>
-      </c>
-      <c r="J24">
-        <v>0.1916122741700249</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.478297666666667</v>
-      </c>
-      <c r="N24">
-        <v>4.434893</v>
-      </c>
-      <c r="O24">
-        <v>0.1575882146187223</v>
-      </c>
-      <c r="P24">
-        <v>0.190782016500569</v>
-      </c>
-      <c r="Q24">
-        <v>0.1957083787287777</v>
-      </c>
-      <c r="R24">
-        <v>1.761375408559</v>
-      </c>
-      <c r="S24">
-        <v>0.02749031095054703</v>
-      </c>
-      <c r="T24">
-        <v>0.03655617605241725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1323876666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.397163</v>
-      </c>
-      <c r="I25">
-        <v>0.1744439520243225</v>
-      </c>
-      <c r="J25">
-        <v>0.1916122741700249</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M25">
-        <v>1.094548</v>
-      </c>
-      <c r="N25">
-        <v>3.283644</v>
-      </c>
-      <c r="O25">
-        <v>0.1166800631725455</v>
-      </c>
-      <c r="P25">
-        <v>0.1412571225032925</v>
-      </c>
-      <c r="Q25">
-        <v>0.1449046557746666</v>
-      </c>
-      <c r="R25">
-        <v>1.304141901972</v>
-      </c>
-      <c r="S25">
-        <v>0.02035413134226645</v>
-      </c>
-      <c r="T25">
-        <v>0.02706659848556969</v>
+        <v>0.09177883219407768</v>
       </c>
     </row>
   </sheetData>
